--- a/honeypot_data_sheets/attacker_reports_20251027.xlsx
+++ b/honeypot_data_sheets/attacker_reports_20251027.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L303"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>total_seconds</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>duration_ms</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -479,6 +484,9 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
+      <c r="M2" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -531,6 +539,9 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
+      <c r="M3" t="n">
+        <v>646</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -583,6 +594,9 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
+      <c r="M4" t="n">
+        <v>623</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -635,6 +649,9 @@
       <c r="L5" t="n">
         <v>1</v>
       </c>
+      <c r="M5" t="n">
+        <v>621</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -687,6 +704,9 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
+      <c r="M6" t="n">
+        <v>641</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -739,6 +759,9 @@
       <c r="L7" t="n">
         <v>1</v>
       </c>
+      <c r="M7" t="n">
+        <v>663</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -791,6 +814,9 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
+      <c r="M8" t="n">
+        <v>665</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -843,6 +869,9 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
+      <c r="M9" t="n">
+        <v>705</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -895,6 +924,9 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
+      <c r="M10" t="n">
+        <v>655</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -947,6 +979,9 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
+      <c r="M11" t="n">
+        <v>647</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -999,6 +1034,9 @@
       <c r="L12" t="n">
         <v>1</v>
       </c>
+      <c r="M12" t="n">
+        <v>807</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1051,6 +1089,9 @@
       <c r="L13" t="n">
         <v>1</v>
       </c>
+      <c r="M13" t="n">
+        <v>658</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1103,6 +1144,9 @@
       <c r="L14" t="n">
         <v>1</v>
       </c>
+      <c r="M14" t="n">
+        <v>681</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1155,6 +1199,9 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
+      <c r="M15" t="n">
+        <v>656</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1207,6 +1254,9 @@
       <c r="L16" t="n">
         <v>0</v>
       </c>
+      <c r="M16" t="n">
+        <v>875</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1259,6 +1309,9 @@
       <c r="L17" t="n">
         <v>0</v>
       </c>
+      <c r="M17" t="n">
+        <v>781</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1311,6 +1364,9 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
+      <c r="M18" t="n">
+        <v>889</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1363,6 +1419,9 @@
       <c r="L19" t="n">
         <v>1</v>
       </c>
+      <c r="M19" t="n">
+        <v>699</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1415,6 +1474,9 @@
       <c r="L20" t="n">
         <v>1</v>
       </c>
+      <c r="M20" t="n">
+        <v>870</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1467,6 +1529,9 @@
       <c r="L21" t="n">
         <v>2</v>
       </c>
+      <c r="M21" t="n">
+        <v>1819</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1519,6 +1584,9 @@
       <c r="L22" t="n">
         <v>4</v>
       </c>
+      <c r="M22" t="n">
+        <v>3520</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1571,6 +1639,9 @@
       <c r="L23" t="n">
         <v>2</v>
       </c>
+      <c r="M23" t="n">
+        <v>1775</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1623,6 +1694,9 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
+      <c r="M24" t="n">
+        <v>664</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1675,6 +1749,9 @@
       <c r="L25" t="n">
         <v>1</v>
       </c>
+      <c r="M25" t="n">
+        <v>676</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1727,6 +1804,9 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
+      <c r="M26" t="n">
+        <v>712</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1779,6 +1859,9 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
+      <c r="M27" t="n">
+        <v>701</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1831,6 +1914,9 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
+      <c r="M28" t="n">
+        <v>658</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1883,6 +1969,9 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
+      <c r="M29" t="n">
+        <v>679</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1935,6 +2024,9 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
+      <c r="M30" t="n">
+        <v>730</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1987,6 +2079,9 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
+      <c r="M31" t="n">
+        <v>654</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2039,6 +2134,9 @@
       <c r="L32" t="n">
         <v>0</v>
       </c>
+      <c r="M32" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2091,6 +2189,9 @@
       <c r="L33" t="n">
         <v>1</v>
       </c>
+      <c r="M33" t="n">
+        <v>717</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2143,6 +2244,9 @@
       <c r="L34" t="n">
         <v>1</v>
       </c>
+      <c r="M34" t="n">
+        <v>652</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2195,6 +2299,9 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
+      <c r="M35" t="n">
+        <v>678</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2247,6 +2354,9 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
+      <c r="M36" t="n">
+        <v>1104</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2299,6 +2409,9 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
+      <c r="M37" t="n">
+        <v>762</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2351,6 +2464,9 @@
       <c r="L38" t="n">
         <v>0</v>
       </c>
+      <c r="M38" t="n">
+        <v>574</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2403,6 +2519,9 @@
       <c r="L39" t="n">
         <v>3</v>
       </c>
+      <c r="M39" t="n">
+        <v>3005</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2455,6 +2574,9 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
+      <c r="M40" t="n">
+        <v>674</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2511,6 +2633,9 @@
       <c r="L41" t="n">
         <v>6</v>
       </c>
+      <c r="M41" t="n">
+        <v>5215</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2563,6 +2688,9 @@
       <c r="L42" t="n">
         <v>1</v>
       </c>
+      <c r="M42" t="n">
+        <v>1106</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2619,6 +2747,9 @@
       <c r="L43" t="n">
         <v>2</v>
       </c>
+      <c r="M43" t="n">
+        <v>2431</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2675,6 +2806,9 @@
       <c r="L44" t="n">
         <v>6</v>
       </c>
+      <c r="M44" t="n">
+        <v>5470</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2731,6 +2865,9 @@
       <c r="L45" t="n">
         <v>5</v>
       </c>
+      <c r="M45" t="n">
+        <v>4278</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2787,6 +2924,9 @@
       <c r="L46" t="n">
         <v>4</v>
       </c>
+      <c r="M46" t="n">
+        <v>3854</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2843,6 +2983,9 @@
       <c r="L47" t="n">
         <v>8</v>
       </c>
+      <c r="M47" t="n">
+        <v>7443</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2899,6 +3042,9 @@
       <c r="L48" t="n">
         <v>4</v>
       </c>
+      <c r="M48" t="n">
+        <v>3067</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2955,6 +3101,9 @@
       <c r="L49" t="n">
         <v>6</v>
       </c>
+      <c r="M49" t="n">
+        <v>5813</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3011,6 +3160,9 @@
       <c r="L50" t="n">
         <v>5</v>
       </c>
+      <c r="M50" t="n">
+        <v>4812</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3067,6 +3219,9 @@
       <c r="L51" t="n">
         <v>3</v>
       </c>
+      <c r="M51" t="n">
+        <v>3318</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3123,6 +3278,9 @@
       <c r="L52" t="n">
         <v>5</v>
       </c>
+      <c r="M52" t="n">
+        <v>4824</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3179,6 +3337,9 @@
       <c r="L53" t="n">
         <v>3</v>
       </c>
+      <c r="M53" t="n">
+        <v>3732</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3235,6 +3396,9 @@
       <c r="L54" t="n">
         <v>3</v>
       </c>
+      <c r="M54" t="n">
+        <v>3612</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3287,6 +3451,9 @@
       <c r="L55" t="n">
         <v>1</v>
       </c>
+      <c r="M55" t="n">
+        <v>1269</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3343,6 +3510,9 @@
       <c r="L56" t="n">
         <v>6</v>
       </c>
+      <c r="M56" t="n">
+        <v>5726</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3399,6 +3569,9 @@
       <c r="L57" t="n">
         <v>4</v>
       </c>
+      <c r="M57" t="n">
+        <v>4416</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3455,6 +3628,9 @@
       <c r="L58" t="n">
         <v>6</v>
       </c>
+      <c r="M58" t="n">
+        <v>5758</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3511,6 +3687,9 @@
       <c r="L59" t="n">
         <v>6</v>
       </c>
+      <c r="M59" t="n">
+        <v>6028</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3567,6 +3746,9 @@
       <c r="L60" t="n">
         <v>8</v>
       </c>
+      <c r="M60" t="n">
+        <v>7745</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3623,6 +3805,9 @@
       <c r="L61" t="n">
         <v>5</v>
       </c>
+      <c r="M61" t="n">
+        <v>4572</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3679,6 +3864,9 @@
       <c r="L62" t="n">
         <v>4</v>
       </c>
+      <c r="M62" t="n">
+        <v>3956</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3735,6 +3923,9 @@
       <c r="L63" t="n">
         <v>3</v>
       </c>
+      <c r="M63" t="n">
+        <v>3259</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3791,6 +3982,9 @@
       <c r="L64" t="n">
         <v>4</v>
       </c>
+      <c r="M64" t="n">
+        <v>4081</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3847,6 +4041,9 @@
       <c r="L65" t="n">
         <v>4</v>
       </c>
+      <c r="M65" t="n">
+        <v>3414</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3903,6 +4100,9 @@
       <c r="L66" t="n">
         <v>3</v>
       </c>
+      <c r="M66" t="n">
+        <v>3537</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3959,6 +4159,9 @@
       <c r="L67" t="n">
         <v>4</v>
       </c>
+      <c r="M67" t="n">
+        <v>3243</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4015,6 +4218,9 @@
       <c r="L68" t="n">
         <v>3</v>
       </c>
+      <c r="M68" t="n">
+        <v>3183</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4067,6 +4273,9 @@
       <c r="L69" t="n">
         <v>0</v>
       </c>
+      <c r="M69" t="n">
+        <v>672</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4119,6 +4328,9 @@
       <c r="L70" t="n">
         <v>1</v>
       </c>
+      <c r="M70" t="n">
+        <v>685</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4171,6 +4383,9 @@
       <c r="L71" t="n">
         <v>1</v>
       </c>
+      <c r="M71" t="n">
+        <v>671</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4223,6 +4438,9 @@
       <c r="L72" t="n">
         <v>0</v>
       </c>
+      <c r="M72" t="n">
+        <v>644</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4275,6 +4493,9 @@
       <c r="L73" t="n">
         <v>1</v>
       </c>
+      <c r="M73" t="n">
+        <v>1135</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4327,6 +4548,9 @@
       <c r="L74" t="n">
         <v>0</v>
       </c>
+      <c r="M74" t="n">
+        <v>660</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4379,6 +4603,9 @@
       <c r="L75" t="n">
         <v>123</v>
       </c>
+      <c r="M75" t="n">
+        <v>123302</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4431,6 +4658,9 @@
       <c r="L76" t="n">
         <v>1</v>
       </c>
+      <c r="M76" t="n">
+        <v>656</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4483,6 +4713,9 @@
       <c r="L77" t="n">
         <v>0</v>
       </c>
+      <c r="M77" t="n">
+        <v>669</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4539,6 +4772,9 @@
       <c r="L78" t="n">
         <v>2</v>
       </c>
+      <c r="M78" t="n">
+        <v>2588</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4595,6 +4831,9 @@
       <c r="L79" t="n">
         <v>2</v>
       </c>
+      <c r="M79" t="n">
+        <v>2353</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4651,6 +4890,9 @@
       <c r="L80" t="n">
         <v>3</v>
       </c>
+      <c r="M80" t="n">
+        <v>2491</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4707,6 +4949,9 @@
       <c r="L81" t="n">
         <v>2</v>
       </c>
+      <c r="M81" t="n">
+        <v>2246</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4763,6 +5008,9 @@
       <c r="L82" t="n">
         <v>3</v>
       </c>
+      <c r="M82" t="n">
+        <v>2549</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4819,6 +5067,9 @@
       <c r="L83" t="n">
         <v>2</v>
       </c>
+      <c r="M83" t="n">
+        <v>2422</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4875,6 +5126,9 @@
       <c r="L84" t="n">
         <v>2</v>
       </c>
+      <c r="M84" t="n">
+        <v>2236</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4931,6 +5185,9 @@
       <c r="L85" t="n">
         <v>3</v>
       </c>
+      <c r="M85" t="n">
+        <v>2711</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4987,6 +5244,9 @@
       <c r="L86" t="n">
         <v>2</v>
       </c>
+      <c r="M86" t="n">
+        <v>2684</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5043,6 +5303,9 @@
       <c r="L87" t="n">
         <v>3</v>
       </c>
+      <c r="M87" t="n">
+        <v>2383</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5099,6 +5362,9 @@
       <c r="L88" t="n">
         <v>3</v>
       </c>
+      <c r="M88" t="n">
+        <v>2326</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5155,6 +5421,9 @@
       <c r="L89" t="n">
         <v>3</v>
       </c>
+      <c r="M89" t="n">
+        <v>2802</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5211,6 +5480,9 @@
       <c r="L90" t="n">
         <v>3</v>
       </c>
+      <c r="M90" t="n">
+        <v>2408</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5267,6 +5539,9 @@
       <c r="L91" t="n">
         <v>2</v>
       </c>
+      <c r="M91" t="n">
+        <v>2836</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5323,6 +5598,9 @@
       <c r="L92" t="n">
         <v>2</v>
       </c>
+      <c r="M92" t="n">
+        <v>2343</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5379,6 +5657,9 @@
       <c r="L93" t="n">
         <v>3</v>
       </c>
+      <c r="M93" t="n">
+        <v>2804</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5435,6 +5716,9 @@
       <c r="L94" t="n">
         <v>2</v>
       </c>
+      <c r="M94" t="n">
+        <v>2745</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5491,6 +5775,9 @@
       <c r="L95" t="n">
         <v>3</v>
       </c>
+      <c r="M95" t="n">
+        <v>2465</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5547,6 +5834,9 @@
       <c r="L96" t="n">
         <v>2</v>
       </c>
+      <c r="M96" t="n">
+        <v>2174</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5603,6 +5893,9 @@
       <c r="L97" t="n">
         <v>2</v>
       </c>
+      <c r="M97" t="n">
+        <v>2419</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5659,6 +5952,9 @@
       <c r="L98" t="n">
         <v>2</v>
       </c>
+      <c r="M98" t="n">
+        <v>2822</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5715,6 +6011,9 @@
       <c r="L99" t="n">
         <v>3</v>
       </c>
+      <c r="M99" t="n">
+        <v>2953</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5771,6 +6070,9 @@
       <c r="L100" t="n">
         <v>3</v>
       </c>
+      <c r="M100" t="n">
+        <v>2306</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5827,6 +6129,9 @@
       <c r="L101" t="n">
         <v>3</v>
       </c>
+      <c r="M101" t="n">
+        <v>2371</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5883,6 +6188,9 @@
       <c r="L102" t="n">
         <v>3</v>
       </c>
+      <c r="M102" t="n">
+        <v>2516</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5939,6 +6247,9 @@
       <c r="L103" t="n">
         <v>3</v>
       </c>
+      <c r="M103" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5995,6 +6306,9 @@
       <c r="L104" t="n">
         <v>3</v>
       </c>
+      <c r="M104" t="n">
+        <v>2911</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6051,6 +6365,9 @@
       <c r="L105" t="n">
         <v>3</v>
       </c>
+      <c r="M105" t="n">
+        <v>3133</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6107,6 +6424,9 @@
       <c r="L106" t="n">
         <v>3</v>
       </c>
+      <c r="M106" t="n">
+        <v>2417</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6163,6 +6483,9 @@
       <c r="L107" t="n">
         <v>2</v>
       </c>
+      <c r="M107" t="n">
+        <v>2590</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6219,6 +6542,9 @@
       <c r="L108" t="n">
         <v>2</v>
       </c>
+      <c r="M108" t="n">
+        <v>2292</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6275,6 +6601,9 @@
       <c r="L109" t="n">
         <v>2</v>
       </c>
+      <c r="M109" t="n">
+        <v>2344</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6331,6 +6660,9 @@
       <c r="L110" t="n">
         <v>2</v>
       </c>
+      <c r="M110" t="n">
+        <v>2203</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6387,6 +6719,9 @@
       <c r="L111" t="n">
         <v>3</v>
       </c>
+      <c r="M111" t="n">
+        <v>2636</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6443,6 +6778,9 @@
       <c r="L112" t="n">
         <v>2</v>
       </c>
+      <c r="M112" t="n">
+        <v>2134</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6499,6 +6837,9 @@
       <c r="L113" t="n">
         <v>2</v>
       </c>
+      <c r="M113" t="n">
+        <v>2410</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6555,6 +6896,9 @@
       <c r="L114" t="n">
         <v>3</v>
       </c>
+      <c r="M114" t="n">
+        <v>3126</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6611,6 +6955,9 @@
       <c r="L115" t="n">
         <v>3</v>
       </c>
+      <c r="M115" t="n">
+        <v>2635</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6667,6 +7014,9 @@
       <c r="L116" t="n">
         <v>3</v>
       </c>
+      <c r="M116" t="n">
+        <v>2167</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6723,6 +7073,9 @@
       <c r="L117" t="n">
         <v>2</v>
       </c>
+      <c r="M117" t="n">
+        <v>2510</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6779,6 +7132,9 @@
       <c r="L118" t="n">
         <v>3</v>
       </c>
+      <c r="M118" t="n">
+        <v>2346</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6835,6 +7191,9 @@
       <c r="L119" t="n">
         <v>3</v>
       </c>
+      <c r="M119" t="n">
+        <v>2781</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6891,6 +7250,9 @@
       <c r="L120" t="n">
         <v>2</v>
       </c>
+      <c r="M120" t="n">
+        <v>2441</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6947,6 +7309,9 @@
       <c r="L121" t="n">
         <v>2</v>
       </c>
+      <c r="M121" t="n">
+        <v>2315</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7003,6 +7368,9 @@
       <c r="L122" t="n">
         <v>3</v>
       </c>
+      <c r="M122" t="n">
+        <v>2858</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7059,6 +7427,9 @@
       <c r="L123" t="n">
         <v>3</v>
       </c>
+      <c r="M123" t="n">
+        <v>2465</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7115,6 +7486,9 @@
       <c r="L124" t="n">
         <v>2</v>
       </c>
+      <c r="M124" t="n">
+        <v>2474</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7171,6 +7545,9 @@
       <c r="L125" t="n">
         <v>2</v>
       </c>
+      <c r="M125" t="n">
+        <v>2298</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7227,6 +7604,9 @@
       <c r="L126" t="n">
         <v>2</v>
       </c>
+      <c r="M126" t="n">
+        <v>2534</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7283,6 +7663,9 @@
       <c r="L127" t="n">
         <v>3</v>
       </c>
+      <c r="M127" t="n">
+        <v>2816</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7339,6 +7722,9 @@
       <c r="L128" t="n">
         <v>3</v>
       </c>
+      <c r="M128" t="n">
+        <v>2710</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7395,6 +7781,9 @@
       <c r="L129" t="n">
         <v>2</v>
       </c>
+      <c r="M129" t="n">
+        <v>2376</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7451,6 +7840,9 @@
       <c r="L130" t="n">
         <v>2</v>
       </c>
+      <c r="M130" t="n">
+        <v>2457</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7507,6 +7899,9 @@
       <c r="L131" t="n">
         <v>2</v>
       </c>
+      <c r="M131" t="n">
+        <v>2134</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7563,6 +7958,9 @@
       <c r="L132" t="n">
         <v>2</v>
       </c>
+      <c r="M132" t="n">
+        <v>2147</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7615,6 +8013,9 @@
       <c r="L133" t="n">
         <v>1</v>
       </c>
+      <c r="M133" t="n">
+        <v>638</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7671,6 +8072,9 @@
       <c r="L134" t="n">
         <v>2</v>
       </c>
+      <c r="M134" t="n">
+        <v>2269</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7727,6 +8131,9 @@
       <c r="L135" t="n">
         <v>2</v>
       </c>
+      <c r="M135" t="n">
+        <v>2190</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7783,6 +8190,9 @@
       <c r="L136" t="n">
         <v>2</v>
       </c>
+      <c r="M136" t="n">
+        <v>2325</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7839,6 +8249,9 @@
       <c r="L137" t="n">
         <v>2</v>
       </c>
+      <c r="M137" t="n">
+        <v>2453</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7895,6 +8308,9 @@
       <c r="L138" t="n">
         <v>3</v>
       </c>
+      <c r="M138" t="n">
+        <v>2922</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7951,6 +8367,9 @@
       <c r="L139" t="n">
         <v>3</v>
       </c>
+      <c r="M139" t="n">
+        <v>2990</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8007,6 +8426,9 @@
       <c r="L140" t="n">
         <v>3</v>
       </c>
+      <c r="M140" t="n">
+        <v>2966</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8063,6 +8485,9 @@
       <c r="L141" t="n">
         <v>2</v>
       </c>
+      <c r="M141" t="n">
+        <v>2197</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8119,6 +8544,9 @@
       <c r="L142" t="n">
         <v>2</v>
       </c>
+      <c r="M142" t="n">
+        <v>2204</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8175,6 +8603,9 @@
       <c r="L143" t="n">
         <v>2</v>
       </c>
+      <c r="M143" t="n">
+        <v>2375</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8231,6 +8662,9 @@
       <c r="L144" t="n">
         <v>2</v>
       </c>
+      <c r="M144" t="n">
+        <v>2619</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8287,6 +8721,9 @@
       <c r="L145" t="n">
         <v>2</v>
       </c>
+      <c r="M145" t="n">
+        <v>2293</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8343,6 +8780,9 @@
       <c r="L146" t="n">
         <v>2</v>
       </c>
+      <c r="M146" t="n">
+        <v>2169</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8399,6 +8839,9 @@
       <c r="L147" t="n">
         <v>2</v>
       </c>
+      <c r="M147" t="n">
+        <v>2337</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8455,6 +8898,9 @@
       <c r="L148" t="n">
         <v>3</v>
       </c>
+      <c r="M148" t="n">
+        <v>2329</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8511,6 +8957,9 @@
       <c r="L149" t="n">
         <v>2</v>
       </c>
+      <c r="M149" t="n">
+        <v>2244</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8567,6 +9016,9 @@
       <c r="L150" t="n">
         <v>3</v>
       </c>
+      <c r="M150" t="n">
+        <v>2857</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8623,6 +9075,9 @@
       <c r="L151" t="n">
         <v>3</v>
       </c>
+      <c r="M151" t="n">
+        <v>2347</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8679,6 +9134,9 @@
       <c r="L152" t="n">
         <v>2</v>
       </c>
+      <c r="M152" t="n">
+        <v>2283</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8735,6 +9193,9 @@
       <c r="L153" t="n">
         <v>2</v>
       </c>
+      <c r="M153" t="n">
+        <v>2275</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8791,6 +9252,9 @@
       <c r="L154" t="n">
         <v>3</v>
       </c>
+      <c r="M154" t="n">
+        <v>2531</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8843,6 +9307,9 @@
       <c r="L155" t="n">
         <v>0</v>
       </c>
+      <c r="M155" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8899,6 +9366,9 @@
       <c r="L156" t="n">
         <v>3</v>
       </c>
+      <c r="M156" t="n">
+        <v>2125</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8955,6 +9425,9 @@
       <c r="L157" t="n">
         <v>2</v>
       </c>
+      <c r="M157" t="n">
+        <v>2097</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9011,6 +9484,9 @@
       <c r="L158" t="n">
         <v>3</v>
       </c>
+      <c r="M158" t="n">
+        <v>2581</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9067,6 +9543,9 @@
       <c r="L159" t="n">
         <v>2</v>
       </c>
+      <c r="M159" t="n">
+        <v>2229</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9123,6 +9602,9 @@
       <c r="L160" t="n">
         <v>2</v>
       </c>
+      <c r="M160" t="n">
+        <v>2131</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9179,6 +9661,9 @@
       <c r="L161" t="n">
         <v>3</v>
       </c>
+      <c r="M161" t="n">
+        <v>2326</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9235,6 +9720,9 @@
       <c r="L162" t="n">
         <v>3</v>
       </c>
+      <c r="M162" t="n">
+        <v>3031</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9291,6 +9779,9 @@
       <c r="L163" t="n">
         <v>3</v>
       </c>
+      <c r="M163" t="n">
+        <v>2370</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9347,6 +9838,9 @@
       <c r="L164" t="n">
         <v>2</v>
       </c>
+      <c r="M164" t="n">
+        <v>2096</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9403,6 +9897,9 @@
       <c r="L165" t="n">
         <v>3</v>
       </c>
+      <c r="M165" t="n">
+        <v>2059</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9459,6 +9956,9 @@
       <c r="L166" t="n">
         <v>3</v>
       </c>
+      <c r="M166" t="n">
+        <v>2354</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9515,6 +10015,9 @@
       <c r="L167" t="n">
         <v>2</v>
       </c>
+      <c r="M167" t="n">
+        <v>2542</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9571,6 +10074,9 @@
       <c r="L168" t="n">
         <v>3</v>
       </c>
+      <c r="M168" t="n">
+        <v>2616</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9627,6 +10133,9 @@
       <c r="L169" t="n">
         <v>2</v>
       </c>
+      <c r="M169" t="n">
+        <v>2198</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9683,6 +10192,9 @@
       <c r="L170" t="n">
         <v>2</v>
       </c>
+      <c r="M170" t="n">
+        <v>2031</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9739,6 +10251,9 @@
       <c r="L171" t="n">
         <v>2</v>
       </c>
+      <c r="M171" t="n">
+        <v>2406</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9795,6 +10310,9 @@
       <c r="L172" t="n">
         <v>2</v>
       </c>
+      <c r="M172" t="n">
+        <v>2185</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9851,6 +10369,9 @@
       <c r="L173" t="n">
         <v>3</v>
       </c>
+      <c r="M173" t="n">
+        <v>2617</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9907,6 +10428,9 @@
       <c r="L174" t="n">
         <v>2</v>
       </c>
+      <c r="M174" t="n">
+        <v>2216</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9963,6 +10487,9 @@
       <c r="L175" t="n">
         <v>3</v>
       </c>
+      <c r="M175" t="n">
+        <v>2358</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10015,6 +10542,9 @@
       <c r="L176" t="n">
         <v>1</v>
       </c>
+      <c r="M176" t="n">
+        <v>763</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10071,6 +10601,9 @@
       <c r="L177" t="n">
         <v>2</v>
       </c>
+      <c r="M177" t="n">
+        <v>2579</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10127,6 +10660,9 @@
       <c r="L178" t="n">
         <v>2</v>
       </c>
+      <c r="M178" t="n">
+        <v>2180</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10183,6 +10719,9 @@
       <c r="L179" t="n">
         <v>3</v>
       </c>
+      <c r="M179" t="n">
+        <v>2512</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10239,6 +10778,9 @@
       <c r="L180" t="n">
         <v>2</v>
       </c>
+      <c r="M180" t="n">
+        <v>2174</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10295,6 +10837,9 @@
       <c r="L181" t="n">
         <v>3</v>
       </c>
+      <c r="M181" t="n">
+        <v>2298</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10351,6 +10896,9 @@
       <c r="L182" t="n">
         <v>2</v>
       </c>
+      <c r="M182" t="n">
+        <v>2461</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10407,6 +10955,9 @@
       <c r="L183" t="n">
         <v>2</v>
       </c>
+      <c r="M183" t="n">
+        <v>2324</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10463,6 +11014,9 @@
       <c r="L184" t="n">
         <v>2</v>
       </c>
+      <c r="M184" t="n">
+        <v>2164</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10519,6 +11073,9 @@
       <c r="L185" t="n">
         <v>2</v>
       </c>
+      <c r="M185" t="n">
+        <v>2736</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10575,6 +11132,9 @@
       <c r="L186" t="n">
         <v>3</v>
       </c>
+      <c r="M186" t="n">
+        <v>2363</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10631,6 +11191,9 @@
       <c r="L187" t="n">
         <v>3</v>
       </c>
+      <c r="M187" t="n">
+        <v>2244</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10687,6 +11250,9 @@
       <c r="L188" t="n">
         <v>2</v>
       </c>
+      <c r="M188" t="n">
+        <v>2076</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10743,6 +11309,9 @@
       <c r="L189" t="n">
         <v>3</v>
       </c>
+      <c r="M189" t="n">
+        <v>3231</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10799,6 +11368,9 @@
       <c r="L190" t="n">
         <v>3</v>
       </c>
+      <c r="M190" t="n">
+        <v>2516</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10855,6 +11427,9 @@
       <c r="L191" t="n">
         <v>2</v>
       </c>
+      <c r="M191" t="n">
+        <v>2116</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10911,6 +11486,9 @@
       <c r="L192" t="n">
         <v>2</v>
       </c>
+      <c r="M192" t="n">
+        <v>2336</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10967,6 +11545,9 @@
       <c r="L193" t="n">
         <v>2</v>
       </c>
+      <c r="M193" t="n">
+        <v>2145</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11023,6 +11604,9 @@
       <c r="L194" t="n">
         <v>3</v>
       </c>
+      <c r="M194" t="n">
+        <v>2453</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11079,6 +11663,9 @@
       <c r="L195" t="n">
         <v>2</v>
       </c>
+      <c r="M195" t="n">
+        <v>2127</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11135,6 +11722,9 @@
       <c r="L196" t="n">
         <v>2</v>
       </c>
+      <c r="M196" t="n">
+        <v>2104</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11191,6 +11781,9 @@
       <c r="L197" t="n">
         <v>3</v>
       </c>
+      <c r="M197" t="n">
+        <v>2523</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11247,6 +11840,9 @@
       <c r="L198" t="n">
         <v>2</v>
       </c>
+      <c r="M198" t="n">
+        <v>2259</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11303,6 +11899,9 @@
       <c r="L199" t="n">
         <v>2</v>
       </c>
+      <c r="M199" t="n">
+        <v>2341</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11359,6 +11958,9 @@
       <c r="L200" t="n">
         <v>3</v>
       </c>
+      <c r="M200" t="n">
+        <v>2365</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11415,6 +12017,9 @@
       <c r="L201" t="n">
         <v>3</v>
       </c>
+      <c r="M201" t="n">
+        <v>2581</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11471,6 +12076,9 @@
       <c r="L202" t="n">
         <v>2</v>
       </c>
+      <c r="M202" t="n">
+        <v>2245</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11527,6 +12135,9 @@
       <c r="L203" t="n">
         <v>3</v>
       </c>
+      <c r="M203" t="n">
+        <v>2488</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11583,6 +12194,9 @@
       <c r="L204" t="n">
         <v>2</v>
       </c>
+      <c r="M204" t="n">
+        <v>2496</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11639,6 +12253,9 @@
       <c r="L205" t="n">
         <v>2</v>
       </c>
+      <c r="M205" t="n">
+        <v>2511</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11695,6 +12312,9 @@
       <c r="L206" t="n">
         <v>2</v>
       </c>
+      <c r="M206" t="n">
+        <v>2128</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11751,6 +12371,9 @@
       <c r="L207" t="n">
         <v>2</v>
       </c>
+      <c r="M207" t="n">
+        <v>2219</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11807,6 +12430,9 @@
       <c r="L208" t="n">
         <v>2</v>
       </c>
+      <c r="M208" t="n">
+        <v>2451</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11859,6 +12485,9 @@
       <c r="L209" t="n">
         <v>23</v>
       </c>
+      <c r="M209" t="n">
+        <v>22406</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11915,6 +12544,9 @@
       <c r="L210" t="n">
         <v>3</v>
       </c>
+      <c r="M210" t="n">
+        <v>2602</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11971,6 +12603,9 @@
       <c r="L211" t="n">
         <v>3</v>
       </c>
+      <c r="M211" t="n">
+        <v>2447</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12027,6 +12662,9 @@
       <c r="L212" t="n">
         <v>2</v>
       </c>
+      <c r="M212" t="n">
+        <v>2445</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12083,6 +12721,9 @@
       <c r="L213" t="n">
         <v>2</v>
       </c>
+      <c r="M213" t="n">
+        <v>2099</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -12139,6 +12780,9 @@
       <c r="L214" t="n">
         <v>2</v>
       </c>
+      <c r="M214" t="n">
+        <v>2099</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12195,6 +12839,9 @@
       <c r="L215" t="n">
         <v>2</v>
       </c>
+      <c r="M215" t="n">
+        <v>2167</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12251,6 +12898,9 @@
       <c r="L216" t="n">
         <v>2</v>
       </c>
+      <c r="M216" t="n">
+        <v>2197</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12307,6 +12957,9 @@
       <c r="L217" t="n">
         <v>3</v>
       </c>
+      <c r="M217" t="n">
+        <v>2562</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12363,6 +13016,9 @@
       <c r="L218" t="n">
         <v>2</v>
       </c>
+      <c r="M218" t="n">
+        <v>2059</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12419,6 +13075,9 @@
       <c r="L219" t="n">
         <v>3</v>
       </c>
+      <c r="M219" t="n">
+        <v>2084</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12475,6 +13134,9 @@
       <c r="L220" t="n">
         <v>3</v>
       </c>
+      <c r="M220" t="n">
+        <v>2714</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12531,6 +13193,9 @@
       <c r="L221" t="n">
         <v>2</v>
       </c>
+      <c r="M221" t="n">
+        <v>2494</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12583,6 +13248,9 @@
       <c r="L222" t="n">
         <v>1</v>
       </c>
+      <c r="M222" t="n">
+        <v>690</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12639,6 +13307,9 @@
       <c r="L223" t="n">
         <v>2</v>
       </c>
+      <c r="M223" t="n">
+        <v>2219</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12695,6 +13366,9 @@
       <c r="L224" t="n">
         <v>3</v>
       </c>
+      <c r="M224" t="n">
+        <v>2157</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12751,6 +13425,9 @@
       <c r="L225" t="n">
         <v>2</v>
       </c>
+      <c r="M225" t="n">
+        <v>2620</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12807,6 +13484,9 @@
       <c r="L226" t="n">
         <v>2</v>
       </c>
+      <c r="M226" t="n">
+        <v>2360</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12863,6 +13543,9 @@
       <c r="L227" t="n">
         <v>2</v>
       </c>
+      <c r="M227" t="n">
+        <v>2544</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12919,6 +13602,9 @@
       <c r="L228" t="n">
         <v>2</v>
       </c>
+      <c r="M228" t="n">
+        <v>2756</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12975,6 +13661,9 @@
       <c r="L229" t="n">
         <v>2</v>
       </c>
+      <c r="M229" t="n">
+        <v>2281</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -13031,6 +13720,9 @@
       <c r="L230" t="n">
         <v>2</v>
       </c>
+      <c r="M230" t="n">
+        <v>2059</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -13087,6 +13779,9 @@
       <c r="L231" t="n">
         <v>2</v>
       </c>
+      <c r="M231" t="n">
+        <v>2095</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -13143,6 +13838,9 @@
       <c r="L232" t="n">
         <v>3</v>
       </c>
+      <c r="M232" t="n">
+        <v>2454</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13195,6 +13893,9 @@
       <c r="L233" t="n">
         <v>1</v>
       </c>
+      <c r="M233" t="n">
+        <v>853</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13247,6 +13948,9 @@
       <c r="L234" t="n">
         <v>1</v>
       </c>
+      <c r="M234" t="n">
+        <v>1002</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13299,6 +14003,9 @@
       <c r="L235" t="n">
         <v>2</v>
       </c>
+      <c r="M235" t="n">
+        <v>1527</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13351,6 +14058,9 @@
       <c r="L236" t="n">
         <v>1</v>
       </c>
+      <c r="M236" t="n">
+        <v>1172</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13403,6 +14113,9 @@
       <c r="L237" t="n">
         <v>0</v>
       </c>
+      <c r="M237" t="n">
+        <v>773</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13459,6 +14172,9 @@
       <c r="L238" t="n">
         <v>6</v>
       </c>
+      <c r="M238" t="n">
+        <v>5635</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13515,6 +14231,9 @@
       <c r="L239" t="n">
         <v>4</v>
       </c>
+      <c r="M239" t="n">
+        <v>4009</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13567,6 +14286,9 @@
       <c r="L240" t="n">
         <v>1</v>
       </c>
+      <c r="M240" t="n">
+        <v>674</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13623,6 +14345,9 @@
       <c r="L241" t="n">
         <v>3</v>
       </c>
+      <c r="M241" t="n">
+        <v>3453</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13679,6 +14404,9 @@
       <c r="L242" t="n">
         <v>6</v>
       </c>
+      <c r="M242" t="n">
+        <v>5419</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13735,6 +14463,9 @@
       <c r="L243" t="n">
         <v>5</v>
       </c>
+      <c r="M243" t="n">
+        <v>4310</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13791,6 +14522,9 @@
       <c r="L244" t="n">
         <v>8</v>
       </c>
+      <c r="M244" t="n">
+        <v>7398</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13843,6 +14577,9 @@
       <c r="L245" t="n">
         <v>1</v>
       </c>
+      <c r="M245" t="n">
+        <v>879</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13899,6 +14636,9 @@
       <c r="L246" t="n">
         <v>6</v>
       </c>
+      <c r="M246" t="n">
+        <v>5634</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13951,6 +14691,9 @@
       <c r="L247" t="n">
         <v>1</v>
       </c>
+      <c r="M247" t="n">
+        <v>681</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -14003,6 +14746,9 @@
       <c r="L248" t="n">
         <v>0</v>
       </c>
+      <c r="M248" t="n">
+        <v>679</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -14059,6 +14805,9 @@
       <c r="L249" t="n">
         <v>1</v>
       </c>
+      <c r="M249" t="n">
+        <v>1005</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -14111,6 +14860,9 @@
       <c r="L250" t="n">
         <v>1</v>
       </c>
+      <c r="M250" t="n">
+        <v>426</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -14163,6 +14915,9 @@
       <c r="L251" t="n">
         <v>1</v>
       </c>
+      <c r="M251" t="n">
+        <v>664</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14219,6 +14974,9 @@
       <c r="L252" t="n">
         <v>1</v>
       </c>
+      <c r="M252" t="n">
+        <v>947</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14271,6 +15029,9 @@
       <c r="L253" t="n">
         <v>1</v>
       </c>
+      <c r="M253" t="n">
+        <v>642</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14327,6 +15088,9 @@
       <c r="L254" t="n">
         <v>1</v>
       </c>
+      <c r="M254" t="n">
+        <v>1013</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14383,6 +15147,9 @@
       <c r="L255" t="n">
         <v>1</v>
       </c>
+      <c r="M255" t="n">
+        <v>937</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14435,6 +15202,9 @@
       <c r="L256" t="n">
         <v>0</v>
       </c>
+      <c r="M256" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14487,6 +15257,9 @@
       <c r="L257" t="n">
         <v>0</v>
       </c>
+      <c r="M257" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14539,6 +15312,9 @@
       <c r="L258" t="n">
         <v>1</v>
       </c>
+      <c r="M258" t="n">
+        <v>648</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14595,6 +15371,9 @@
       <c r="L259" t="n">
         <v>1</v>
       </c>
+      <c r="M259" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14651,6 +15430,9 @@
       <c r="L260" t="n">
         <v>1</v>
       </c>
+      <c r="M260" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14703,6 +15485,9 @@
       <c r="L261" t="n">
         <v>1</v>
       </c>
+      <c r="M261" t="n">
+        <v>649</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14755,6 +15540,9 @@
       <c r="L262" t="n">
         <v>1</v>
       </c>
+      <c r="M262" t="n">
+        <v>440</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14811,6 +15599,9 @@
       <c r="L263" t="n">
         <v>1</v>
       </c>
+      <c r="M263" t="n">
+        <v>995</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14867,6 +15658,9 @@
       <c r="L264" t="n">
         <v>1</v>
       </c>
+      <c r="M264" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14919,6 +15713,9 @@
       <c r="L265" t="n">
         <v>1</v>
       </c>
+      <c r="M265" t="n">
+        <v>661</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14975,6 +15772,9 @@
       <c r="L266" t="n">
         <v>1</v>
       </c>
+      <c r="M266" t="n">
+        <v>941</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -15031,6 +15831,9 @@
       <c r="L267" t="n">
         <v>1</v>
       </c>
+      <c r="M267" t="n">
+        <v>942</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -15087,6 +15890,9 @@
       <c r="L268" t="n">
         <v>1</v>
       </c>
+      <c r="M268" t="n">
+        <v>938</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -15139,6 +15945,9 @@
       <c r="L269" t="n">
         <v>1</v>
       </c>
+      <c r="M269" t="n">
+        <v>714</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15195,6 +16004,9 @@
       <c r="L270" t="n">
         <v>1</v>
       </c>
+      <c r="M270" t="n">
+        <v>932</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15251,6 +16063,9 @@
       <c r="L271" t="n">
         <v>1</v>
       </c>
+      <c r="M271" t="n">
+        <v>970</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15303,6 +16118,9 @@
       <c r="L272" t="n">
         <v>1</v>
       </c>
+      <c r="M272" t="n">
+        <v>710</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15355,6 +16173,9 @@
       <c r="L273" t="n">
         <v>1</v>
       </c>
+      <c r="M273" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15411,6 +16232,9 @@
       <c r="L274" t="n">
         <v>1</v>
       </c>
+      <c r="M274" t="n">
+        <v>1004</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15463,6 +16287,9 @@
       <c r="L275" t="n">
         <v>1</v>
       </c>
+      <c r="M275" t="n">
+        <v>697</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15515,6 +16342,9 @@
       <c r="L276" t="n">
         <v>1</v>
       </c>
+      <c r="M276" t="n">
+        <v>708</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15567,6 +16397,9 @@
       <c r="L277" t="n">
         <v>121</v>
       </c>
+      <c r="M277" t="n">
+        <v>121287</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15619,6 +16452,9 @@
       <c r="L278" t="n">
         <v>1</v>
       </c>
+      <c r="M278" t="n">
+        <v>660</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15671,6 +16507,9 @@
       <c r="L279" t="n">
         <v>0</v>
       </c>
+      <c r="M279" t="n">
+        <v>465</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15723,6 +16562,9 @@
       <c r="L280" t="n">
         <v>1</v>
       </c>
+      <c r="M280" t="n">
+        <v>621</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15775,6 +16617,9 @@
       <c r="L281" t="n">
         <v>0</v>
       </c>
+      <c r="M281" t="n">
+        <v>670</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15827,6 +16672,9 @@
       <c r="L282" t="n">
         <v>0</v>
       </c>
+      <c r="M282" t="n">
+        <v>791</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15879,6 +16727,9 @@
       <c r="L283" t="n">
         <v>1</v>
       </c>
+      <c r="M283" t="n">
+        <v>705</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15935,6 +16786,9 @@
       <c r="L284" t="n">
         <v>5</v>
       </c>
+      <c r="M284" t="n">
+        <v>5100</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15991,6 +16845,9 @@
       <c r="L285" t="n">
         <v>4</v>
       </c>
+      <c r="M285" t="n">
+        <v>3888</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -16047,6 +16904,9 @@
       <c r="L286" t="n">
         <v>5</v>
       </c>
+      <c r="M286" t="n">
+        <v>4102</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -16103,6 +16963,9 @@
       <c r="L287" t="n">
         <v>4</v>
       </c>
+      <c r="M287" t="n">
+        <v>3594</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -16159,6 +17022,9 @@
       <c r="L288" t="n">
         <v>6</v>
       </c>
+      <c r="M288" t="n">
+        <v>5494</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -16215,6 +17081,9 @@
       <c r="L289" t="n">
         <v>3</v>
       </c>
+      <c r="M289" t="n">
+        <v>3188</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -16267,6 +17136,9 @@
       <c r="L290" t="n">
         <v>0</v>
       </c>
+      <c r="M290" t="n">
+        <v>728</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -16323,6 +17195,9 @@
       <c r="L291" t="n">
         <v>6</v>
       </c>
+      <c r="M291" t="n">
+        <v>5600</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -16379,6 +17254,9 @@
       <c r="L292" t="n">
         <v>5</v>
       </c>
+      <c r="M292" t="n">
+        <v>4653</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -16435,6 +17313,9 @@
       <c r="L293" t="n">
         <v>4</v>
       </c>
+      <c r="M293" t="n">
+        <v>3963</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16491,6 +17372,9 @@
       <c r="L294" t="n">
         <v>6</v>
       </c>
+      <c r="M294" t="n">
+        <v>5607</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -16547,6 +17431,9 @@
       <c r="L295" t="n">
         <v>4</v>
       </c>
+      <c r="M295" t="n">
+        <v>3878</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16603,6 +17490,9 @@
       <c r="L296" t="n">
         <v>5</v>
       </c>
+      <c r="M296" t="n">
+        <v>5312</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -16659,6 +17549,9 @@
       <c r="L297" t="n">
         <v>4</v>
       </c>
+      <c r="M297" t="n">
+        <v>4638</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16715,6 +17608,9 @@
       <c r="L298" t="n">
         <v>3</v>
       </c>
+      <c r="M298" t="n">
+        <v>3601</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16771,6 +17667,9 @@
       <c r="L299" t="n">
         <v>4</v>
       </c>
+      <c r="M299" t="n">
+        <v>4101</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16827,6 +17726,9 @@
       <c r="L300" t="n">
         <v>4</v>
       </c>
+      <c r="M300" t="n">
+        <v>4203</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16883,6 +17785,9 @@
       <c r="L301" t="n">
         <v>6</v>
       </c>
+      <c r="M301" t="n">
+        <v>5485</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16939,61 +17844,8 @@
       <c r="L302" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>server4_1761599709.txt</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>206.189.12.5</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>2025-10-27 17:18:34.958</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>2025-10-27 17:18:41.537</t>
-        </is>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>server4</t>
-        </is>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>export PATH=/usr/local/sbin:/usr/local/bin:/usr/sbin:/usr/bin:/sbin:/bin:$PATH</t>
-        </is>
-      </c>
-      <c r="J303" t="n">
-        <v>0</v>
-      </c>
-      <c r="K303" t="n">
-        <v>7</v>
-      </c>
-      <c r="L303" t="n">
-        <v>7</v>
+      <c r="M302" t="n">
+        <v>5306</v>
       </c>
     </row>
   </sheetData>
